--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_9_2024-05-30_PH_45/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_9_2024-05-30_PH_45/output.xlsx
@@ -511,12 +511,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.014768456</t>
+          <t>0.006417379</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.057676025</t>
+          <t>0.05096639</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -571,12 +571,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.054764662</t>
+          <t>0.054595068</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.1724331</t>
+          <t>0.17181516</t>
         </is>
       </c>
       <c r="D5" t="n">
